--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03436996640632467</v>
+        <v>0.03324615404796692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996457560848383</v>
+        <v>0.9996573389791893</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03324615404796692</v>
+        <v>0.03890877678391542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996573389791893</v>
+        <v>0.9995989755340712</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03890877678391542</v>
+        <v>0.03272455184303397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995989755340712</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9996627150218961</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1313832720735846</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03272455184303397</v>
+        <v>0.03256334092595459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996627150218961</v>
+        <v>0.999664376588444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1313832720735846</v>
+        <v>0.1291041796288097</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03256334092595459</v>
+        <v>0.03406936841555383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999664376588444</v>
+        <v>0.9996488542842338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1291041796288097</v>
+        <v>0.1330350711633044</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
-        </is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1194315095165318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03406936841555383</v>
+        <v>0.03305301388636939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996488542842338</v>
+        <v>0.9996593296336523</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1330350711633044</v>
+        <v>0.1316409733199541</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1194315095165318</v>
+        <v>0.1244229128666727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía de fondo.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03305301388636939</v>
+        <v>0.03435667493040919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996593296336523</v>
+        <v>0.9996458930772465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1316409733199541</v>
+        <v>0.1335970946467847</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1244229128666727</v>
+        <v>0.1217136106832186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.987</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>
